--- a/PDXaddresses.xlsx
+++ b/PDXaddresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgerbing/Documents/000/553/1Weeks/Week07/Maps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4344D8A6-D5B4-FC41-9903-1475710566FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE93A60-FB27-7E45-AE4E-7FA9BEE23900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{72EDD343-D277-204D-A8C0-BAC924C59543}"/>
+    <workbookView xWindow="12900" yWindow="760" windowWidth="16500" windowHeight="12080" xr2:uid="{72EDD343-D277-204D-A8C0-BAC924C59543}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,36 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>Slabtown New Seasons</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>1825 SW Broadway, Portland, OR 97201</t>
   </si>
   <si>
-    <t>2170 NW Raleigh St, Portland, OR 97210</t>
-  </si>
-  <si>
-    <t>1210 NW Couch St, Portland, OR 97209</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>Pearl District Whole Foods</t>
+    <t>students</t>
+  </si>
+  <si>
+    <t>Reed College</t>
+  </si>
+  <si>
+    <t>3203 SE Woodstock Blvd, Portland, OR 97202</t>
+  </si>
+  <si>
+    <t>5000 N Willamette Blvd, Portland, OR 97203</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>Lewis and Clark College</t>
+  </si>
+  <si>
+    <t>615 S Palatine Hill Rd, OR 97219</t>
   </si>
   <si>
     <t>Portland State University</t>
+  </si>
+  <si>
+    <t>University of Portland</t>
   </si>
 </sst>
 </file>
@@ -456,73 +459,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A69743-594D-8E4A-81F5-34AC2FE0D7CD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>12490</v>
       </c>
-      <c r="D2">
-        <v>2942</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>8027</v>
-      </c>
-      <c r="D3">
-        <v>984</v>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1458</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>5482</v>
-      </c>
-      <c r="D4">
-        <v>3773</v>
+      <c r="C5">
+        <v>3520</v>
       </c>
     </row>
   </sheetData>
